--- a/biology/Biochimie/Purificación_López-García/Purificación_López-García.xlsx
+++ b/biology/Biochimie/Purificación_López-García/Purificación_López-García.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Purificaci%C3%B3n_L%C3%B3pez-Garc%C3%ADa</t>
+          <t>Purificación_López-García</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Purificación López-García est une biologiste d'origine espagnole. La Médaille d'argent du CNRS lui a été décernée en 2017[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Purificación López-García est une biologiste d'origine espagnole. La Médaille d'argent du CNRS lui a été décernée en 2017,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Purificaci%C3%B3n_L%C3%B3pez-Garc%C3%ADa</t>
+          <t>Purificación_López-García</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1992, Purificación López-García soutient sa thèse en biologie à l'université autonome de Madrid. Elle effectue ses recherches postdoctorales à l'université Paris-Sud, l'université Pierre-et-Marie-Curie et l'Université Miguel-Hernández.
-Elle rejoint le CNRS en 2002[3].
-Elle est directrice de recherches au CNRS depuis 2007 au sein de l'unité d'écologie, systématique et évolution[4]. Elle s'intéresse à la diversité des micro-organismes procaryotes et eucaryotes dans des écosystèmes divers et à leur évolution depuis l'origine de la vie sur Terre. 
-Elle fait partie du projet européen SINGEK (Single cell genomics)[5].
+Elle rejoint le CNRS en 2002.
+Elle est directrice de recherches au CNRS depuis 2007 au sein de l'unité d'écologie, systématique et évolution. Elle s'intéresse à la diversité des micro-organismes procaryotes et eucaryotes dans des écosystèmes divers et à leur évolution depuis l'origine de la vie sur Terre. 
+Elle fait partie du projet européen SINGEK (Single cell genomics).
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Purificaci%C3%B3n_L%C3%B3pez-Garc%C3%ADa</t>
+          <t>Purificación_López-García</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Domaine de recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La thèse qu'elle a soutenue avait pour objet la génétique des Archées halophiles (vivants en milieu hyper-salé). Ces recherches concernent la diversité des micro-organismes procaryotes et eucaryotes dans des écosystèmes divers depuis les extrémophiles des fumeurs noirs de la dorsale médio-atlantique jusqu'aux organismes halophiles des lacs alcalins. 
 Elle s'est intéressée à l'évolution du vivant depuis l'origine de la vie et des trois grands groupes que sont les Eucaryotes, les Bactéries et les Archées.
-En 2009, elle publie un livre intitulé « Le Soleil, la Terre... la Vie[6]», avec ses confrères Robert Pascal, Hervé Martin et Murielle Gargaud. 
-Elle a mené, en 2016, les premières recherches sur le site de Dallol, en Éthiopie, ces recherches ont exploré toutes les limites de la vie[7]. Elle est considérée comme une experte en exobiologie.
+En 2009, elle publie un livre intitulé « Le Soleil, la Terre... la Vie», avec ses confrères Robert Pascal, Hervé Martin et Murielle Gargaud. 
+Elle a mené, en 2016, les premières recherches sur le site de Dallol, en Éthiopie, ces recherches ont exploré toutes les limites de la vie. Elle est considérée comme une experte en exobiologie.
 </t>
         </is>
       </c>
